--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_VanLoi.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_VanLoi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="90">
   <si>
     <t>STT</t>
   </si>
@@ -286,6 +286,24 @@
   </si>
   <si>
     <t>125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim+fw</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>ID mới : 202111101453094</t>
+  </si>
+  <si>
+    <t>ID mới : 202111101455113</t>
+  </si>
+  <si>
+    <t>ID mới : 202111101501986</t>
   </si>
 </sst>
 </file>
@@ -706,9 +724,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -728,21 +761,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1084,43 +1102,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1165,58 +1183,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1241,23 +1259,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1311,7 +1329,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1342,7 +1360,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1371,7 +1389,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1400,7 +1418,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1429,7 +1447,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1458,7 +1476,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1487,7 +1505,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1518,7 +1536,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1547,7 +1565,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1576,7 +1594,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1605,7 +1623,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2836,13 +2854,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2854,6 +2865,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2865,7 +2883,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2897,43 +2915,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -2978,58 +2996,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -3054,23 +3072,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3080,7 +3098,9 @@
       <c r="B6" s="37">
         <v>44510</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44511</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>69</v>
       </c>
@@ -3091,12 +3111,22 @@
       <c r="G6" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="1"/>
+      <c r="H6" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="L6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>85</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
         <v>61</v>
@@ -3110,9 +3140,11 @@
       <c r="R6" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="S6" s="4"/>
+      <c r="S6" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="T6" s="54"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3127,7 +3159,9 @@
       <c r="B7" s="37">
         <v>44510</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44511</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>69</v>
       </c>
@@ -3140,18 +3174,24 @@
       <c r="G7" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="38"/>
+      <c r="H7" s="38" t="s">
+        <v>87</v>
+      </c>
       <c r="I7" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="K7" s="1" t="s">
         <v>82</v>
       </c>
       <c r="L7" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="M7" s="40"/>
+      <c r="M7" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="40" t="s">
         <v>61</v>
@@ -3165,9 +3205,11 @@
       <c r="R7" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="4"/>
+      <c r="S7" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="T7" s="54"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3180,7 +3222,9 @@
       <c r="B8" s="37">
         <v>44510</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44511</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>69</v>
       </c>
@@ -3193,26 +3237,42 @@
       <c r="G8" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="13" t="s">
+        <v>89</v>
+      </c>
       <c r="I8" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="K8" s="40" t="s">
         <v>82</v>
       </c>
       <c r="L8" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="M8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>85</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="4"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="T8" s="54"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3225,7 +3285,9 @@
       <c r="B9" s="37">
         <v>44510</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44511</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>69</v>
       </c>
@@ -3267,9 +3329,11 @@
       <c r="R9" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="S9" s="4"/>
+      <c r="S9" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="T9" s="54"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3282,7 +3346,9 @@
       <c r="B10" s="37">
         <v>44510</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="37">
+        <v>44511</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>69</v>
       </c>
@@ -3301,7 +3367,9 @@
       <c r="I10" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="K10" s="40" t="s">
         <v>73</v>
       </c>
@@ -3322,9 +3390,11 @@
       <c r="R10" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="S10" s="4"/>
+      <c r="S10" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="T10" s="54"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3353,7 +3423,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3382,7 +3452,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3413,7 +3483,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3442,7 +3512,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3473,7 +3543,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3502,7 +3572,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3685,7 +3755,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -3962,7 +4032,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -4090,7 +4160,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4154,7 +4224,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4733,6 +4803,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4744,13 +4821,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4794,43 +4864,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -4875,58 +4945,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -4951,23 +5021,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4993,7 +5063,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5024,7 +5094,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5053,7 +5123,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5082,7 +5152,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5111,7 +5181,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5140,7 +5210,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5169,7 +5239,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5200,7 +5270,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5229,7 +5299,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5258,7 +5328,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5287,7 +5357,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6518,6 +6588,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6529,13 +6606,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_VanLoi.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_VanLoi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang11\2.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang11\2.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="96">
   <si>
     <t>STT</t>
   </si>
@@ -304,6 +304,24 @@
   </si>
   <si>
     <t>ID mới : 202111101501986</t>
+  </si>
+  <si>
+    <t>15/11/2021</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module GSM</t>
+  </si>
+  <si>
+    <t>Thay module GSM</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Imei mới: 862846048286192</t>
+  </si>
+  <si>
+    <t>16/11/21</t>
   </si>
 </sst>
 </file>
@@ -724,6 +742,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -736,31 +778,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1102,43 +1120,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1183,58 +1201,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1259,23 +1277,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1329,7 +1347,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1360,7 +1378,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1389,7 +1407,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1418,7 +1436,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1447,7 +1465,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1476,7 +1494,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1505,7 +1523,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1536,7 +1554,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1565,7 +1583,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1594,7 +1612,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1623,7 +1641,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2854,6 +2872,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2865,13 +2890,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2882,8 +2900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2915,43 +2933,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -2996,58 +3014,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -3072,23 +3090,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3144,7 +3162,7 @@
         <v>86</v>
       </c>
       <c r="T6" s="54"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3209,7 +3227,7 @@
         <v>86</v>
       </c>
       <c r="T7" s="54"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3272,7 +3290,7 @@
         <v>86</v>
       </c>
       <c r="T8" s="54"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3333,7 +3351,7 @@
         <v>86</v>
       </c>
       <c r="T9" s="54"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3394,7 +3412,7 @@
         <v>86</v>
       </c>
       <c r="T10" s="54"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3404,26 +3422,54 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="B11" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="39">
+        <v>202107141357896</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>94</v>
+      </c>
       <c r="I11" s="60"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="L11" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="51">
+        <v>275000</v>
+      </c>
+      <c r="O11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3452,7 +3498,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3483,7 +3529,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3512,7 +3558,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3543,7 +3589,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3572,7 +3618,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3723,7 +3769,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -3904,7 +3950,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -4224,7 +4270,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4577,7 +4623,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -4803,13 +4849,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4821,6 +4860,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4864,43 +4910,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -4945,58 +4991,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -5021,23 +5067,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5063,7 +5109,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5094,7 +5140,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5123,7 +5169,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5152,7 +5198,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5181,7 +5227,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5210,7 +5256,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5239,7 +5285,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5270,7 +5316,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5299,7 +5345,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5328,7 +5374,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5357,7 +5403,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6588,13 +6634,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6606,6 +6645,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
